--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 30/S&P500_returns_compared_trimester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 30/S&P500_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>0.02539780777448591</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02635972134348785</v>
+        <v>0.01991164996575745</v>
       </c>
       <c r="H2" t="n">
-        <v>3.787388177527098</v>
+        <v>-21.60091082443634</v>
       </c>
       <c r="I2" t="n">
-        <v>3.191106551423515</v>
+        <v>-4.157087459457829</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.02850917715789084</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03068767013000468</v>
+        <v>0.03009973981162817</v>
       </c>
       <c r="H3" t="n">
-        <v>7.641374424974846</v>
+        <v>5.579125082875611</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.03688642016201375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.037246715046793</v>
+        <v>0.03257032030850929</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9767683694886842</v>
+        <v>-11.70105376056324</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.03720152667980871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03926016259009753</v>
+        <v>0.04385226396870685</v>
       </c>
       <c r="H5" t="n">
-        <v>5.533740397289</v>
+        <v>17.87759235297153</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.006559799104029466</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01102913255191527</v>
+        <v>0.009340134532747924</v>
       </c>
       <c r="H6" t="n">
-        <v>68.13216955288219</v>
+        <v>42.3844600212008</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.0115941307058423</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01341686341721033</v>
+        <v>0.01916383099248319</v>
       </c>
       <c r="H7" t="n">
-        <v>15.72116752530271</v>
+        <v>65.28907150258799</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.05022737750499624</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05360967703920329</v>
+        <v>-0.03823027689262049</v>
       </c>
       <c r="H8" t="n">
-        <v>6.733975975294746</v>
+        <v>23.88558035143756</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.04691588781839836</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03515771257978852</v>
+        <v>-0.04636685070171725</v>
       </c>
       <c r="H9" t="n">
-        <v>-25.06224604365005</v>
+        <v>1.170258396913046</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04134023671255897</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0436907067155021</v>
+        <v>-0.04430144813570271</v>
       </c>
       <c r="H10" t="n">
-        <v>5.68567136972649</v>
+        <v>-7.163024836391753</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.04184362476160845</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04644466652982456</v>
+        <v>-0.03402974395980334</v>
       </c>
       <c r="H11" t="n">
-        <v>10.99580113919186</v>
+        <v>18.67400552968908</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.04913332877268228</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05331769175511739</v>
+        <v>-0.05226123092730091</v>
       </c>
       <c r="H12" t="n">
-        <v>8.516343359910065</v>
+        <v>-6.366151516193856</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.05296564739060104</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05299185299148074</v>
+        <v>-0.06200861294328826</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04947659883478528</v>
+        <v>-17.07326540540298</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0742566594116762</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.083854136350446</v>
+        <v>-0.07618995393466342</v>
       </c>
       <c r="H14" t="n">
-        <v>12.92473565981705</v>
+        <v>-2.603530159186278</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08994896525467186</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.09091628731395411</v>
+        <v>-0.08066949390406666</v>
       </c>
       <c r="H15" t="n">
-        <v>1.075412103456088</v>
+        <v>10.31637365069436</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.2928831391059319</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2771104849062456</v>
+        <v>-0.2897488657875255</v>
       </c>
       <c r="H16" t="n">
-        <v>-5.385306319726896</v>
+        <v>1.070144675440928</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.2975985271063226</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2838248585136165</v>
+        <v>-0.2956098268576282</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.628271761501434</v>
+        <v>0.6682493586347314</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1463090402526538</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1523478131067811</v>
+        <v>-0.1504995708153072</v>
       </c>
       <c r="H18" t="n">
-        <v>4.127409245320226</v>
+        <v>-2.864163796999149</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1515576784841984</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1461635085790367</v>
+        <v>-0.1611524762796151</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.559153161430948</v>
+        <v>-6.330789631629953</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1760882198616668</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1606924722553546</v>
+        <v>0.1617719183709837</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.743201344420973</v>
+        <v>-8.130186960791503</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1797092892219813</v>
       </c>
       <c r="G21" t="n">
-        <v>0.176683869582593</v>
+        <v>0.1754400757592293</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.683507654215482</v>
+        <v>-2.375622028908345</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1310699299328742</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1303895917577532</v>
+        <v>0.1321719364385439</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.519065033047191</v>
+        <v>0.8407775194768896</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1367006164594899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1273200493620329</v>
+        <v>0.1334593803762209</v>
       </c>
       <c r="H23" t="n">
-        <v>-6.862124941650756</v>
+        <v>-2.371047159271222</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.08818548087357189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09157666010710584</v>
+        <v>0.08503937967050729</v>
       </c>
       <c r="H24" t="n">
-        <v>3.845507446283309</v>
+        <v>-3.567595449839468</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.09282685644658613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09469325969546029</v>
+        <v>0.0898567819665986</v>
       </c>
       <c r="H25" t="n">
-        <v>2.010628518857702</v>
+        <v>-3.199585328731398</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0633831948684522</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05653450006413808</v>
+        <v>0.05830909535097477</v>
       </c>
       <c r="H26" t="n">
-        <v>-10.80522182343152</v>
+        <v>-8.00543350332593</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.0571513088897921</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0592242591896437</v>
+        <v>0.06096219504949345</v>
       </c>
       <c r="H27" t="n">
-        <v>3.627126552515147</v>
+        <v>6.668064535582348</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1098855847014277</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1041468850317251</v>
+        <v>-0.1070705262825184</v>
       </c>
       <c r="H28" t="n">
-        <v>-5.222431755079916</v>
+        <v>2.561808654481983</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1125005700755154</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1103566114226714</v>
+        <v>-0.1095351116268773</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.905731367765397</v>
+        <v>2.635949708208182</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1141038915889902</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1219219498949362</v>
+        <v>0.114703976377031</v>
       </c>
       <c r="H30" t="n">
-        <v>6.851701722941369</v>
+        <v>0.5259108867227292</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1173112250060583</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1245110247507822</v>
+        <v>0.1217260358033515</v>
       </c>
       <c r="H31" t="n">
-        <v>6.137349383532634</v>
+        <v>3.763331937813466</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09762696239513032</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09791650069980916</v>
+        <v>0.09586020242423361</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2965761686889132</v>
+        <v>-1.809704949894897</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.09713843665228507</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1044420156269098</v>
+        <v>0.1008308252114875</v>
       </c>
       <c r="H33" t="n">
-        <v>7.518732261224759</v>
+        <v>3.801161194738629</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.0576776914251576</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06164857359851705</v>
+        <v>0.06201406621992579</v>
       </c>
       <c r="H34" t="n">
-        <v>6.884606639487385</v>
+        <v>7.518287725497924</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.05634466182785419</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05878739335713992</v>
+        <v>0.06129028180608855</v>
       </c>
       <c r="H35" t="n">
-        <v>4.335337989513244</v>
+        <v>8.777441940009078</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01940027443471792</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01990431120067482</v>
+        <v>0.01848210344690783</v>
       </c>
       <c r="H36" t="n">
-        <v>2.59809090666727</v>
+        <v>-4.732773192975919</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01690084256368003</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01575856345786775</v>
+        <v>0.01467228913309483</v>
       </c>
       <c r="H37" t="n">
-        <v>-6.758711002178321</v>
+        <v>-13.18604928830216</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1957330145089376</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1936935369506773</v>
+        <v>-0.1922625126428412</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.04196911460084</v>
+        <v>1.773079454584261</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2031833805928625</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2105944282425536</v>
+        <v>-0.204720043128533</v>
       </c>
       <c r="H39" t="n">
-        <v>3.647467439544817</v>
+        <v>-0.7562934188744779</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1479574051690894</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1540408880943232</v>
+        <v>0.1494310711615197</v>
       </c>
       <c r="H40" t="n">
-        <v>4.111644779307566</v>
+        <v>0.996006918846796</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1596092205391409</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1606030669949496</v>
+        <v>0.1527946166884128</v>
       </c>
       <c r="H41" t="n">
-        <v>0.622674838240311</v>
+        <v>-4.269555247315401</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1078882482502147</v>
       </c>
       <c r="G42" t="n">
-        <v>0.108600195377555</v>
+        <v>0.110515320499863</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6598931198596774</v>
+        <v>2.434993886966802</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1119319091195349</v>
       </c>
       <c r="G43" t="n">
-        <v>0.114497428310942</v>
+        <v>0.1169457587284817</v>
       </c>
       <c r="H43" t="n">
-        <v>2.292035588053196</v>
+        <v>4.479374691619331</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.04121367944339337</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.05121462531537877</v>
+        <v>-0.04272030274995647</v>
       </c>
       <c r="H44" t="n">
-        <v>24.26608351171755</v>
+        <v>-3.655638921131596</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.04162983658448242</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.04665491069364847</v>
+        <v>-0.04888326033804679</v>
       </c>
       <c r="H45" t="n">
-        <v>12.07084754937318</v>
+        <v>-17.42361812745644</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.0430263323809211</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04118969181855953</v>
+        <v>0.04157596203026977</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.268643086055779</v>
+        <v>-3.370890034992763</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04940932482023017</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0451552186699584</v>
+        <v>0.04800648719784652</v>
       </c>
       <c r="H47" t="n">
-        <v>-8.609925688622184</v>
+        <v>-2.839216337174632</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01240329972439864</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01459393914010706</v>
+        <v>0.01190334596739802</v>
       </c>
       <c r="H48" t="n">
-        <v>17.66174698978848</v>
+        <v>-4.030812510457648</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.01891279586603259</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01867736152370804</v>
+        <v>0.02117647270344731</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.244841555908668</v>
+        <v>11.9690227370364</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.08331112177919647</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08673742123232495</v>
+        <v>0.08977310337789059</v>
       </c>
       <c r="H50" t="n">
-        <v>4.112655525404353</v>
+        <v>7.756445310892127</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.08759658603381766</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08561287611521898</v>
+        <v>0.0841614640736324</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.264597295872752</v>
+        <v>-3.921524931187496</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.0359237617239527</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02779179776977241</v>
+        <v>0.03623247265676532</v>
       </c>
       <c r="H52" t="n">
-        <v>-22.6367272354949</v>
+        <v>0.8593502406146347</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.03087780661820814</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03070635074444376</v>
+        <v>0.03031927467193048</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.5552721923689893</v>
+        <v>-1.808845923493491</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05972745123340827</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06251407221158119</v>
+        <v>0.05221853203477626</v>
       </c>
       <c r="H54" t="n">
-        <v>4.665561514224184</v>
+        <v>-12.57197326115254</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06476717173310874</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06036889926422481</v>
+        <v>0.06751266877549916</v>
       </c>
       <c r="H55" t="n">
-        <v>-6.790897844062482</v>
+        <v>4.239025680639589</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.07610167558905528</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0713045742952655</v>
+        <v>0.07439226172639292</v>
       </c>
       <c r="H56" t="n">
-        <v>-6.303542276380163</v>
+        <v>-2.246223686181501</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07639715666827256</v>
       </c>
       <c r="G57" t="n">
-        <v>0.08191893468809484</v>
+        <v>0.08237318352787475</v>
       </c>
       <c r="H57" t="n">
-        <v>7.227727130996042</v>
+        <v>7.822315803650859</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.04700484617669456</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04308528999674288</v>
+        <v>0.04420332342442196</v>
       </c>
       <c r="H58" t="n">
-        <v>-8.338621437495584</v>
+        <v>-5.960072163073305</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.04422603393992752</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04899928108820095</v>
+        <v>0.04548386957217495</v>
       </c>
       <c r="H59" t="n">
-        <v>10.79284467324599</v>
+        <v>2.844106785509983</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04072415366766116</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04067235254391705</v>
+        <v>0.03742234008830662</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.1272000006847149</v>
+        <v>-8.107752480996302</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.04066648323854097</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04255971533187376</v>
+        <v>0.04523675985046357</v>
       </c>
       <c r="H61" t="n">
-        <v>4.655509752902645</v>
+        <v>11.23843580256086</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.02683200843546289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02622117494645342</v>
+        <v>-0.02958402649443543</v>
       </c>
       <c r="H62" t="n">
-        <v>-2.276510498566159</v>
+        <v>-10.25647433583577</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.03157010675155404</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.02996065866541061</v>
+        <v>-0.02697873761437776</v>
       </c>
       <c r="H63" t="n">
-        <v>-5.098012809425192</v>
+        <v>14.54340706956992</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.08731276108070297</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08213950987776152</v>
+        <v>0.08559789619643966</v>
       </c>
       <c r="H64" t="n">
-        <v>-5.924965765496564</v>
+        <v>-1.964048396864081</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.0862402470971773</v>
       </c>
       <c r="G65" t="n">
-        <v>0.09252615041208215</v>
+        <v>0.08242984920470321</v>
       </c>
       <c r="H65" t="n">
-        <v>7.288828043154563</v>
+        <v>-4.418352243564947</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.02139393255741548</v>
       </c>
       <c r="G66" t="n">
-        <v>0.02329602814077008</v>
+        <v>0.01863795968141892</v>
       </c>
       <c r="H66" t="n">
-        <v>8.890817890772977</v>
+        <v>-12.88203030742609</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.0209864019911485</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01833770152132258</v>
+        <v>0.02097233587694761</v>
       </c>
       <c r="H67" t="n">
-        <v>-12.62103180403706</v>
+        <v>-0.06702489643923297</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0002099060747878827</v>
       </c>
       <c r="G68" t="n">
-        <v>0.00055591559604695</v>
+        <v>-0.0006518693164600135</v>
       </c>
       <c r="H68" t="n">
-        <v>164.8401655877381</v>
+        <v>-410.5528589959819</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.002403795222242257</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0004890637611926732</v>
+        <v>-0.001028277294181545</v>
       </c>
       <c r="H69" t="n">
-        <v>-79.65451646349163</v>
+        <v>-142.7772417827825</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06800970974818013</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07545220715186586</v>
+        <v>-0.07723373720033039</v>
       </c>
       <c r="H70" t="n">
-        <v>10.94328652664906</v>
+        <v>-13.56280961395675</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.07493390691371363</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07502492257097845</v>
+        <v>-0.07557700591147817</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1214612463348938</v>
+        <v>-0.8582216305698227</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.04705509918424316</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0471012524960561</v>
+        <v>0.04986799470635789</v>
       </c>
       <c r="H72" t="n">
-        <v>0.098083550163674</v>
+        <v>5.977876087564711</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.05135734494488805</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04751883220317878</v>
+        <v>0.05296629072902942</v>
       </c>
       <c r="H73" t="n">
-        <v>-7.474126136832818</v>
+        <v>3.132844553915204</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.04317079645533341</v>
       </c>
       <c r="G74" t="n">
-        <v>0.05233439540037498</v>
+        <v>0.05012064561086711</v>
       </c>
       <c r="H74" t="n">
-        <v>21.22638379980475</v>
+        <v>16.09849649803046</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.04545429362859869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04402697937537404</v>
+        <v>0.04506943043831715</v>
       </c>
       <c r="H75" t="n">
-        <v>-3.140108753833144</v>
+        <v>-0.8467037095025794</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.03098560570893229</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02708987322727412</v>
+        <v>0.03076961742625365</v>
       </c>
       <c r="H76" t="n">
-        <v>-12.57271688749056</v>
+        <v>-0.6970600630097664</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.02938276534215063</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03513567215887021</v>
+        <v>0.02890765251209474</v>
       </c>
       <c r="H77" t="n">
-        <v>19.57918783249046</v>
+        <v>-1.616977927446202</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.03446971281615122</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02776549988375603</v>
+        <v>0.0287397350176995</v>
       </c>
       <c r="H78" t="n">
-        <v>-19.44957582952026</v>
+        <v>-16.62322465235878</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.03210438352746564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03283574833342446</v>
+        <v>0.03883042067584835</v>
       </c>
       <c r="H79" t="n">
-        <v>2.278083942440846</v>
+        <v>20.95052578296204</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.02946645069203743</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03401518590366261</v>
+        <v>0.03348731153998374</v>
       </c>
       <c r="H80" t="n">
-        <v>15.43699734713678</v>
+        <v>13.64555538082788</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03483623078952545</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03315495967306693</v>
+        <v>0.03791768165409073</v>
       </c>
       <c r="H81" t="n">
-        <v>-4.826214198133165</v>
+        <v>8.845534648059026</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.04915099280235283</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05089350238290823</v>
+        <v>0.05076157413609891</v>
       </c>
       <c r="H82" t="n">
-        <v>3.545217463993917</v>
+        <v>3.276803258527428</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.05158573348780684</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04717570349245692</v>
+        <v>0.05380949381502446</v>
       </c>
       <c r="H83" t="n">
-        <v>-8.548933391423622</v>
+        <v>4.310804900628665</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03674808205395363</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03473532556400887</v>
+        <v>0.03028282616676156</v>
       </c>
       <c r="H84" t="n">
-        <v>-5.477174256304374</v>
+        <v>-17.59345121114011</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0325927857683894</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03803523266081071</v>
+        <v>0.03596238212318414</v>
       </c>
       <c r="H85" t="n">
-        <v>16.6983176310745</v>
+        <v>10.33847299442195</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.02684374630159742</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03247712980173421</v>
+        <v>0.02682454009109065</v>
       </c>
       <c r="H86" t="n">
-        <v>20.98583199544527</v>
+        <v>-0.07154817472561988</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.03362548835019527</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03809896122267375</v>
+        <v>0.02709565021412071</v>
       </c>
       <c r="H87" t="n">
-        <v>13.3038153257111</v>
+        <v>-19.41931093481544</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.0556764454163631</v>
       </c>
       <c r="G88" t="n">
-        <v>0.05430573142370931</v>
+        <v>0.04817112274768637</v>
       </c>
       <c r="H88" t="n">
-        <v>-2.461927988403777</v>
+        <v>-13.48024754912056</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.05379100486134444</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05770385281973733</v>
+        <v>0.05673259176699732</v>
       </c>
       <c r="H89" t="n">
-        <v>7.274167806455612</v>
+        <v>5.468547972352121</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02393890867148892</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02417701768565199</v>
+        <v>-0.02217808218181742</v>
       </c>
       <c r="H90" t="n">
-        <v>0.9946527531000464</v>
+        <v>7.355500260413418</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.02071924697958748</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01634950538710673</v>
+        <v>-0.0114073093496136</v>
       </c>
       <c r="H91" t="n">
-        <v>-21.09025292659431</v>
+        <v>44.94341729285802</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03963729108941371</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04265541053472243</v>
+        <v>0.04699359121375959</v>
       </c>
       <c r="H92" t="n">
-        <v>7.614343367967436</v>
+        <v>18.55903852700618</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04830041776286424</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04101585001047609</v>
+        <v>0.04138469583529474</v>
       </c>
       <c r="H93" t="n">
-        <v>-15.08179036494564</v>
+        <v>-14.31814101799892</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.04450335749651464</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0486543725493183</v>
+        <v>0.04596818934004963</v>
       </c>
       <c r="H94" t="n">
-        <v>9.327419966299738</v>
+        <v>3.291508609546382</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.04477146600756626</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05176742771346825</v>
+        <v>0.05294891697196748</v>
       </c>
       <c r="H95" t="n">
-        <v>15.6259384151497</v>
+        <v>18.26487201249842</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.146963195107255</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1400893431821773</v>
+        <v>-0.1412982855935309</v>
       </c>
       <c r="H96" t="n">
-        <v>-4.677260806735386</v>
+        <v>3.854645041971097</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.150817549107657</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1419761722185541</v>
+        <v>-0.1443244916944263</v>
       </c>
       <c r="H97" t="n">
-        <v>-5.86229980623257</v>
+        <v>4.305239974822694</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1423101300395017</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1350805514608353</v>
+        <v>0.1374313440843549</v>
       </c>
       <c r="H98" t="n">
-        <v>-5.080157383497317</v>
+        <v>-3.428277350173571</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1470608929146514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1460842211957167</v>
+        <v>0.1372273857830673</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.6641274233942842</v>
+        <v>-6.686690755570954</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02325180968686057</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02322381040114761</v>
+        <v>0.02660128896295526</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.1204176624961076</v>
+        <v>14.40524123155652</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.0273166824388394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0253511208821679</v>
+        <v>0.02486804390654239</v>
       </c>
       <c r="H101" t="n">
-        <v>-7.195462190814311</v>
+        <v>-8.963894271492826</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.007741144401112737</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.009031360426786155</v>
+        <v>-0.009370686032189627</v>
       </c>
       <c r="H102" t="n">
-        <v>16.66699339038242</v>
+        <v>-21.05039702970345</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00766063640908223</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.01146107330314558</v>
+        <v>-0.01412537528335847</v>
       </c>
       <c r="H103" t="n">
-        <v>49.6099369702191</v>
+        <v>-84.38905763249423</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.0727885622270989</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0745885676117204</v>
+        <v>0.07213516611691635</v>
       </c>
       <c r="H104" t="n">
-        <v>2.472923395581749</v>
+        <v>-0.8976631632645264</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.07478882140984003</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07837084873570242</v>
+        <v>0.07581845511920414</v>
       </c>
       <c r="H105" t="n">
-        <v>4.789522362216426</v>
+        <v>1.376721400276862</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3466071028434384</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3465228736178076</v>
+        <v>-0.3882180286217482</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.02430106738719351</v>
+        <v>-12.00521438739973</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3762531854192955</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.358722873542956</v>
+        <v>-0.3553816625399402</v>
       </c>
       <c r="H107" t="n">
-        <v>-4.659179657656249</v>
+        <v>5.547201641919954</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.2249197822222643</v>
       </c>
       <c r="G108" t="n">
-        <v>0.226022284865524</v>
+        <v>0.2266034478199331</v>
       </c>
       <c r="H108" t="n">
-        <v>0.4901759340004226</v>
+        <v>0.7485627013479039</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.2226452381003289</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2262444914232791</v>
+        <v>0.2286250402497613</v>
       </c>
       <c r="H109" t="n">
-        <v>1.616586707023254</v>
+        <v>2.685798358165539</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.05862760492876468</v>
       </c>
       <c r="G110" t="n">
-        <v>0.05972313609288694</v>
+        <v>0.06281585600655655</v>
       </c>
       <c r="H110" t="n">
-        <v>1.868626844731891</v>
+        <v>7.143820872233807</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.05744215554139705</v>
       </c>
       <c r="G111" t="n">
-        <v>0.06174333146181522</v>
+        <v>0.06588221159877383</v>
       </c>
       <c r="H111" t="n">
-        <v>7.487838643726427</v>
+        <v>14.69313952066834</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.1283068976581735</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1374595116888148</v>
+        <v>0.137934556989369</v>
       </c>
       <c r="H112" t="n">
-        <v>7.133376457300892</v>
+        <v>7.503617893439254</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.1309363224202389</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1357802366015173</v>
+        <v>0.1390406059155008</v>
       </c>
       <c r="H113" t="n">
-        <v>3.699442669339618</v>
+        <v>6.189484587211243</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 30/S&P500_returns_compared_trimester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 30/S&P500_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.02539780777448591</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01991164996575745</v>
+        <v>0.02305699157791188</v>
       </c>
       <c r="H2" t="n">
-        <v>-21.60091082443634</v>
+        <v>-9.216607265315096</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.157087459457829</v>
+        <v>-20.10553043206665</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.02850917715789084</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03009973981162817</v>
+        <v>0.02628997809623204</v>
       </c>
       <c r="H3" t="n">
-        <v>5.579125082875611</v>
+        <v>-7.784156832616847</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.03688642016201375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03257032030850929</v>
+        <v>0.03525868800870025</v>
       </c>
       <c r="H4" t="n">
-        <v>-11.70105376056324</v>
+        <v>-4.412822242343176</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.03720152667980871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04385226396870685</v>
+        <v>0.03930759779252953</v>
       </c>
       <c r="H5" t="n">
-        <v>17.87759235297153</v>
+        <v>5.661249149390149</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.006559799104029466</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009340134532747924</v>
+        <v>0.007712452594897402</v>
       </c>
       <c r="H6" t="n">
-        <v>42.3844600212008</v>
+        <v>17.57147547643493</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.0115941307058423</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01916383099248319</v>
+        <v>0.01494846244162966</v>
       </c>
       <c r="H7" t="n">
-        <v>65.28907150258799</v>
+        <v>28.93129136535529</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.05022737750499624</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03823027689262049</v>
+        <v>-0.05086221861887811</v>
       </c>
       <c r="H8" t="n">
-        <v>23.88558035143756</v>
+        <v>-1.263934422653695</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.04691588781839836</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04636685070171725</v>
+        <v>-0.04246347903767572</v>
       </c>
       <c r="H9" t="n">
-        <v>1.170258396913046</v>
+        <v>9.490194021174629</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04134023671255897</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04430144813570271</v>
+        <v>-0.03237980220527158</v>
       </c>
       <c r="H10" t="n">
-        <v>-7.163024836391753</v>
+        <v>21.67485050845211</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.04184362476160845</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03402974395980334</v>
+        <v>-0.03907434472277348</v>
       </c>
       <c r="H11" t="n">
-        <v>18.67400552968908</v>
+        <v>6.618164785226235</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.04913332877268228</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05226123092730091</v>
+        <v>-0.05044839356031697</v>
       </c>
       <c r="H12" t="n">
-        <v>-6.366151516193856</v>
+        <v>-2.676522882703297</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.05296564739060104</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.06200861294328826</v>
+        <v>-0.05645073449659632</v>
       </c>
       <c r="H13" t="n">
-        <v>-17.07326540540298</v>
+        <v>-6.579900893675704</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0742566594116762</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.07618995393466342</v>
+        <v>-0.06467495196135342</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.603530159186278</v>
+        <v>12.90349919621638</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08994896525467186</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08066949390406666</v>
+        <v>-0.08826452313423472</v>
       </c>
       <c r="H15" t="n">
-        <v>10.31637365069436</v>
+        <v>1.872664255411935</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.2928831391059319</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2897488657875255</v>
+        <v>-0.2800875310196166</v>
       </c>
       <c r="H16" t="n">
-        <v>1.070144675440928</v>
+        <v>4.368844217313343</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.2975985271063226</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2956098268576282</v>
+        <v>-0.2928305475114004</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6682493586347314</v>
+        <v>1.602151610521497</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1463090402526538</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1504995708153072</v>
+        <v>-0.1486925747138373</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.864163796999149</v>
+        <v>-1.629109491161649</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1515576784841984</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1611524762796151</v>
+        <v>-0.1412471465294106</v>
       </c>
       <c r="H19" t="n">
-        <v>-6.330789631629953</v>
+        <v>6.803041626071625</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1760882198616668</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1617719183709837</v>
+        <v>0.1674391180449883</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.130186960791503</v>
+        <v>-4.911800359770332</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1797092892219813</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1754400757592293</v>
+        <v>0.1902388132037848</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.375622028908345</v>
+        <v>5.859198501863299</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1310699299328742</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1321719364385439</v>
+        <v>0.127247659791147</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8407775194768896</v>
+        <v>-2.916206748324905</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1367006164594899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1334593803762209</v>
+        <v>0.1428244731933284</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.371047159271222</v>
+        <v>4.479757950216161</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.08818548087357189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08503937967050729</v>
+        <v>0.08768896402541863</v>
       </c>
       <c r="H24" t="n">
-        <v>-3.567595449839468</v>
+        <v>-0.563036957143881</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.09282685644658613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0898567819665986</v>
+        <v>0.08857741903885666</v>
       </c>
       <c r="H25" t="n">
-        <v>-3.199585328731398</v>
+        <v>-4.577810313090431</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0633831948684522</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05830909535097477</v>
+        <v>0.05975908783514083</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.00543350332593</v>
+        <v>-5.717772732714058</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.0571513088897921</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06096219504949345</v>
+        <v>0.06134496591039147</v>
       </c>
       <c r="H27" t="n">
-        <v>6.668064535582348</v>
+        <v>7.337814482405336</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1098855847014277</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1070705262825184</v>
+        <v>-0.106495679395795</v>
       </c>
       <c r="H28" t="n">
-        <v>2.561808654481983</v>
+        <v>3.084940863575033</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1125005700755154</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1095351116268773</v>
+        <v>-0.1107381972381655</v>
       </c>
       <c r="H29" t="n">
-        <v>2.635949708208182</v>
+        <v>1.566545694983512</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1141038915889902</v>
       </c>
       <c r="G30" t="n">
-        <v>0.114703976377031</v>
+        <v>0.1153480174433869</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5259108867227292</v>
+        <v>1.090344805134355</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1173112250060583</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1217260358033515</v>
+        <v>0.121009434006115</v>
       </c>
       <c r="H31" t="n">
-        <v>3.763331937813466</v>
+        <v>3.152476670383173</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09762696239513032</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09586020242423361</v>
+        <v>0.09445233749135049</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.809704949894897</v>
+        <v>-3.251791130129623</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.09713843665228507</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1008308252114875</v>
+        <v>0.09900789171123794</v>
       </c>
       <c r="H33" t="n">
-        <v>3.801161194738629</v>
+        <v>1.924526606954508</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.0576776914251576</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06201406621992579</v>
+        <v>0.06156252119748266</v>
       </c>
       <c r="H34" t="n">
-        <v>7.518287725497924</v>
+        <v>6.735411345937798</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.05634466182785419</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06129028180608855</v>
+        <v>0.0640907425248541</v>
       </c>
       <c r="H35" t="n">
-        <v>8.777441940009078</v>
+        <v>13.74767448363778</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01940027443471792</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01848210344690783</v>
+        <v>0.01787794523748153</v>
       </c>
       <c r="H36" t="n">
-        <v>-4.732773192975919</v>
+        <v>-7.846946713867578</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01690084256368003</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01467228913309483</v>
+        <v>0.0139793465245729</v>
       </c>
       <c r="H37" t="n">
-        <v>-13.18604928830216</v>
+        <v>-17.28609699841495</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1957330145089376</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1922625126428412</v>
+        <v>-0.19415195636066</v>
       </c>
       <c r="H38" t="n">
-        <v>1.773079454584261</v>
+        <v>0.8077626312782376</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2031833805928625</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.204720043128533</v>
+        <v>-0.201378391394811</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.7562934188744779</v>
+        <v>0.8883547427869232</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1479574051690894</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1494310711615197</v>
+        <v>0.1525222941345427</v>
       </c>
       <c r="H40" t="n">
-        <v>0.996006918846796</v>
+        <v>3.085272386492889</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1596092205391409</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1527946166884128</v>
+        <v>0.1625497376317284</v>
       </c>
       <c r="H41" t="n">
-        <v>-4.269555247315401</v>
+        <v>1.842322819856385</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1078882482502147</v>
       </c>
       <c r="G42" t="n">
-        <v>0.110515320499863</v>
+        <v>0.1121379916415865</v>
       </c>
       <c r="H42" t="n">
-        <v>2.434993886966802</v>
+        <v>3.939023443513311</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1119319091195349</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1169457587284817</v>
+        <v>0.1176436461656867</v>
       </c>
       <c r="H43" t="n">
-        <v>4.479374691619331</v>
+        <v>5.102867529983868</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.04121367944339337</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.04272030274995647</v>
+        <v>-0.04432173360031996</v>
       </c>
       <c r="H44" t="n">
-        <v>-3.655638921131596</v>
+        <v>-7.541316861056973</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.04162983658448242</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.04888326033804679</v>
+        <v>-0.04271647631403059</v>
       </c>
       <c r="H45" t="n">
-        <v>-17.42361812745644</v>
+        <v>-2.610242601704612</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.0430263323809211</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04157596203026977</v>
+        <v>0.04366626341355728</v>
       </c>
       <c r="H46" t="n">
-        <v>-3.370890034992763</v>
+        <v>1.487300909058989</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04940932482023017</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04800648719784652</v>
+        <v>0.04654274991646783</v>
       </c>
       <c r="H47" t="n">
-        <v>-2.839216337174632</v>
+        <v>-5.801688070403777</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01240329972439864</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01190334596739802</v>
+        <v>0.01827106469499247</v>
       </c>
       <c r="H48" t="n">
-        <v>-4.030812510457648</v>
+        <v>47.30809624031981</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.01891279586603259</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02117647270344731</v>
+        <v>0.01786286122742224</v>
       </c>
       <c r="H49" t="n">
-        <v>11.9690227370364</v>
+        <v>-5.551451229355422</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.08331112177919647</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08977310337789059</v>
+        <v>0.08929801401750473</v>
       </c>
       <c r="H50" t="n">
-        <v>7.756445310892127</v>
+        <v>7.186186082304364</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.08759658603381766</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0841614640736324</v>
+        <v>0.08320129200411103</v>
       </c>
       <c r="H51" t="n">
-        <v>-3.921524931187496</v>
+        <v>-5.017654487139237</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.0359237617239527</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03623247265676532</v>
+        <v>0.0307316383007483</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8593502406146347</v>
+        <v>-14.45317298088657</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.03087780661820814</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03031927467193048</v>
+        <v>0.03303190249621778</v>
       </c>
       <c r="H53" t="n">
-        <v>-1.808845923493491</v>
+        <v>6.976194600361932</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05972745123340827</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05221853203477626</v>
+        <v>0.06123788518043528</v>
       </c>
       <c r="H54" t="n">
-        <v>-12.57197326115254</v>
+        <v>2.528877284792206</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06476717173310874</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06751266877549916</v>
+        <v>0.06885655445510712</v>
       </c>
       <c r="H55" t="n">
-        <v>4.239025680639589</v>
+        <v>6.313974522231458</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.07610167558905528</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07439226172639292</v>
+        <v>0.07575184219012075</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.246223686181501</v>
+        <v>-0.4596921108854586</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07639715666827256</v>
       </c>
       <c r="G57" t="n">
-        <v>0.08237318352787475</v>
+        <v>0.07721698767078458</v>
       </c>
       <c r="H57" t="n">
-        <v>7.822315803650859</v>
+        <v>1.073117165959264</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.04700484617669456</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04420332342442196</v>
+        <v>0.04392000504242998</v>
       </c>
       <c r="H58" t="n">
-        <v>-5.960072163073305</v>
+        <v>-6.562815082233095</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.04422603393992752</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04548386957217495</v>
+        <v>0.04464791983084282</v>
       </c>
       <c r="H59" t="n">
-        <v>2.844106785509983</v>
+        <v>0.9539310974353855</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04072415366766116</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03742234008830662</v>
+        <v>0.04430001912133699</v>
       </c>
       <c r="H60" t="n">
-        <v>-8.107752480996302</v>
+        <v>8.780699245115084</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.04066648323854097</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04523675985046357</v>
+        <v>0.04052303302315245</v>
       </c>
       <c r="H61" t="n">
-        <v>11.23843580256086</v>
+        <v>-0.3527480223629551</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.02683200843546289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02958402649443543</v>
+        <v>-0.02477600955840588</v>
       </c>
       <c r="H62" t="n">
-        <v>-10.25647433583577</v>
+        <v>7.662485952187133</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.03157010675155404</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.02697873761437776</v>
+        <v>-0.02833390820768587</v>
       </c>
       <c r="H63" t="n">
-        <v>14.54340706956992</v>
+        <v>10.25083180534025</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.08731276108070297</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08559789619643966</v>
+        <v>0.08419974881995353</v>
       </c>
       <c r="H64" t="n">
-        <v>-1.964048396864081</v>
+        <v>-3.565357711998248</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.0862402470971773</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08242984920470321</v>
+        <v>0.08248321966911007</v>
       </c>
       <c r="H65" t="n">
-        <v>-4.418352243564947</v>
+        <v>-4.356466446384058</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.02139393255741548</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01863795968141892</v>
+        <v>0.01240874624497877</v>
       </c>
       <c r="H66" t="n">
-        <v>-12.88203030742609</v>
+        <v>-41.99875964048648</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.0209864019911485</v>
       </c>
       <c r="G67" t="n">
-        <v>0.02097233587694761</v>
+        <v>0.02491216041893948</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.06702489643923297</v>
+        <v>18.70620046945999</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0002099060747878827</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0006518693164600135</v>
+        <v>-0.004644619079390839</v>
       </c>
       <c r="H68" t="n">
-        <v>-410.5528589959819</v>
+        <v>-2312.713035620521</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.002403795222242257</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.001028277294181545</v>
+        <v>0.001249178727273585</v>
       </c>
       <c r="H69" t="n">
-        <v>-142.7772417827825</v>
+        <v>-48.03306389350617</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06800970974818013</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07723373720033039</v>
+        <v>-0.07662191004985168</v>
       </c>
       <c r="H70" t="n">
-        <v>-13.56280961395675</v>
+        <v>-12.66319226116386</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.07493390691371363</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07557700591147817</v>
+        <v>-0.07005520212882752</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.8582216305698227</v>
+        <v>6.510677189838693</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.04705509918424316</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04986799470635789</v>
+        <v>0.04910027941438341</v>
       </c>
       <c r="H72" t="n">
-        <v>5.977876087564711</v>
+        <v>4.346351969490912</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.05135734494488805</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05296629072902942</v>
+        <v>0.05290619813365867</v>
       </c>
       <c r="H73" t="n">
-        <v>3.132844553915204</v>
+        <v>3.015835788303904</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.04317079645533341</v>
       </c>
       <c r="G74" t="n">
-        <v>0.05012064561086711</v>
+        <v>0.05122664158461528</v>
       </c>
       <c r="H74" t="n">
-        <v>16.09849649803046</v>
+        <v>18.66040423325718</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.04545429362859869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04506943043831715</v>
+        <v>0.04401857088118336</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.8467037095025794</v>
+        <v>-3.158607543539087</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.03098560570893229</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03076961742625365</v>
+        <v>0.02745423106155744</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.6970600630097664</v>
+        <v>-11.39682302985239</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.02938276534215063</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02890765251209474</v>
+        <v>0.02634645498900677</v>
       </c>
       <c r="H77" t="n">
-        <v>-1.616977927446202</v>
+        <v>-10.33364395007492</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.03446971281615122</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0287397350176995</v>
+        <v>0.02624084315682921</v>
       </c>
       <c r="H78" t="n">
-        <v>-16.62322465235878</v>
+        <v>-23.87275375113155</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.03210438352746564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03883042067584835</v>
+        <v>0.02989624155636491</v>
       </c>
       <c r="H79" t="n">
-        <v>20.95052578296204</v>
+        <v>-6.878007700137405</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.02946645069203743</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03348731153998374</v>
+        <v>0.02843789877865709</v>
       </c>
       <c r="H80" t="n">
-        <v>13.64555538082788</v>
+        <v>-3.490586376113088</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03483623078952545</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03791768165409073</v>
+        <v>0.03823556696748815</v>
       </c>
       <c r="H81" t="n">
-        <v>8.845534648059026</v>
+        <v>9.758048161125442</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.04915099280235283</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05076157413609891</v>
+        <v>0.04804980542723932</v>
       </c>
       <c r="H82" t="n">
-        <v>3.276803258527428</v>
+        <v>-2.240417359506099</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.05158573348780684</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05380949381502446</v>
+        <v>0.05142355324591135</v>
       </c>
       <c r="H83" t="n">
-        <v>4.310804900628665</v>
+        <v>-0.3143897177187985</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03674808205395363</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03028282616676156</v>
+        <v>0.03252013104299802</v>
       </c>
       <c r="H84" t="n">
-        <v>-17.59345121114011</v>
+        <v>-11.5052290477313</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0325927857683894</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03596238212318414</v>
+        <v>0.03394488674599595</v>
       </c>
       <c r="H85" t="n">
-        <v>10.33847299442195</v>
+        <v>4.148467047937672</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.02684374630159742</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02682454009109065</v>
+        <v>0.02905736873294401</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.07154817472561988</v>
+        <v>8.246324512517331</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.03362548835019527</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02709565021412071</v>
+        <v>0.0299046531010126</v>
       </c>
       <c r="H87" t="n">
-        <v>-19.41931093481544</v>
+        <v>-11.06552032919713</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.0556764454163631</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04817112274768637</v>
+        <v>0.05170821828427534</v>
       </c>
       <c r="H88" t="n">
-        <v>-13.48024754912056</v>
+        <v>-7.1272997089026</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.05379100486134444</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05673259176699732</v>
+        <v>0.05415574127928634</v>
       </c>
       <c r="H89" t="n">
-        <v>5.468547972352121</v>
+        <v>0.6780621014276859</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02393890867148892</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02217808218181742</v>
+        <v>-0.02082524930856667</v>
       </c>
       <c r="H90" t="n">
-        <v>7.355500260413418</v>
+        <v>13.00668884137812</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.02071924697958748</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0114073093496136</v>
+        <v>-0.01611561226508308</v>
       </c>
       <c r="H91" t="n">
-        <v>44.94341729285802</v>
+        <v>22.21912176171212</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03963729108941371</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04699359121375959</v>
+        <v>0.04141755110122787</v>
       </c>
       <c r="H92" t="n">
-        <v>18.55903852700618</v>
+        <v>4.491376587260349</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04830041776286424</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04138469583529474</v>
+        <v>0.04224026776573833</v>
       </c>
       <c r="H93" t="n">
-        <v>-14.31814101799892</v>
+        <v>-12.54678588263734</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.04450335749651464</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04596818934004963</v>
+        <v>0.04435897805490745</v>
       </c>
       <c r="H94" t="n">
-        <v>3.291508609546382</v>
+        <v>-0.3244237058260214</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.04477146600756626</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05294891697196748</v>
+        <v>0.04867343960615872</v>
       </c>
       <c r="H95" t="n">
-        <v>18.26487201249842</v>
+        <v>8.715313449716016</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.146963195107255</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1412982855935309</v>
+        <v>-0.1370238470655842</v>
       </c>
       <c r="H96" t="n">
-        <v>3.854645041971097</v>
+        <v>6.763154566976426</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.150817549107657</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1443244916944263</v>
+        <v>-0.1536332490556125</v>
       </c>
       <c r="H97" t="n">
-        <v>4.305239974822694</v>
+        <v>-1.866957767590817</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1423101300395017</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1374313440843549</v>
+        <v>0.1384860456692532</v>
       </c>
       <c r="H98" t="n">
-        <v>-3.428277350173571</v>
+        <v>-2.68714839146518</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1470608929146514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1372273857830673</v>
+        <v>0.1453214180732489</v>
       </c>
       <c r="H99" t="n">
-        <v>-6.686690755570954</v>
+        <v>-1.182826247636105</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02325180968686057</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02660128896295526</v>
+        <v>0.02885573458787011</v>
       </c>
       <c r="H100" t="n">
-        <v>14.40524123155652</v>
+        <v>24.10102687265791</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.0273166824388394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02486804390654239</v>
+        <v>0.02590296284890527</v>
       </c>
       <c r="H101" t="n">
-        <v>-8.963894271492826</v>
+        <v>-5.17529752413886</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.007741144401112737</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.009370686032189627</v>
+        <v>-0.01514838776294839</v>
       </c>
       <c r="H102" t="n">
-        <v>-21.05039702970345</v>
+        <v>-95.68667083346115</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00766063640908223</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.01412537528335847</v>
+        <v>-0.006961254059915352</v>
       </c>
       <c r="H103" t="n">
-        <v>-84.38905763249423</v>
+        <v>9.129559371042728</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.0727885622270989</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07213516611691635</v>
+        <v>0.07527860451082458</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.8976631632645264</v>
+        <v>3.420925221680841</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.07478882140984003</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07581845511920414</v>
+        <v>0.07710973870224591</v>
       </c>
       <c r="H105" t="n">
-        <v>1.376721400276862</v>
+        <v>3.103294380970841</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3466071028434384</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3882180286217482</v>
+        <v>-0.355627198361728</v>
       </c>
       <c r="H106" t="n">
-        <v>-12.00521438739973</v>
+        <v>-2.602397770932004</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3762531854192955</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3553816625399402</v>
+        <v>-0.3608064001754325</v>
       </c>
       <c r="H107" t="n">
-        <v>5.547201641919954</v>
+        <v>4.105423114663907</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.2249197822222643</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2266034478199331</v>
+        <v>0.2216124641136297</v>
       </c>
       <c r="H108" t="n">
-        <v>0.7485627013479039</v>
+        <v>-1.470443406959346</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.2226452381003289</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2286250402497613</v>
+        <v>0.2359875701286443</v>
       </c>
       <c r="H109" t="n">
-        <v>2.685798358165539</v>
+        <v>5.992641990529812</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.05862760492876468</v>
       </c>
       <c r="G110" t="n">
-        <v>0.06281585600655655</v>
+        <v>0.07067777260665785</v>
       </c>
       <c r="H110" t="n">
-        <v>7.143820872233807</v>
+        <v>20.55374373988958</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.05744215554139705</v>
       </c>
       <c r="G111" t="n">
-        <v>0.06588221159877383</v>
+        <v>0.07067777260665785</v>
       </c>
       <c r="H111" t="n">
-        <v>14.69313952066834</v>
+        <v>23.04164413837542</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.1283068976581735</v>
       </c>
       <c r="G112" t="n">
-        <v>0.137934556989369</v>
+        <v>0.130189221647431</v>
       </c>
       <c r="H112" t="n">
-        <v>7.503617893439254</v>
+        <v>1.467048166242987</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.1309363224202389</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1390406059155008</v>
+        <v>0.1421670514637804</v>
       </c>
       <c r="H113" t="n">
-        <v>6.189484587211243</v>
+        <v>8.577244904967301</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>